--- a/data/faktenblatttabellen_2020-11-29.xlsx
+++ b/data/faktenblatttabellen_2020-11-29.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="177">
   <si>
     <t xml:space="preserve">Testungen</t>
   </si>
@@ -117,10 +117,10 @@
     <t xml:space="preserve">154</t>
   </si>
   <si>
-    <t xml:space="preserve">146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-5,2 %</t>
+    <t xml:space="preserve">147</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-4,5 %</t>
   </si>
   <si>
     <t xml:space="preserve">Unter-60-Jährige</t>
@@ -129,7 +129,10 @@
     <t xml:space="preserve">167</t>
   </si>
   <si>
-    <t xml:space="preserve">-7,8 %</t>
+    <t xml:space="preserve">155</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-7,2 %</t>
   </si>
   <si>
     <t xml:space="preserve">Über-60-Jährige</t>
@@ -138,10 +141,10 @@
     <t xml:space="preserve">122</t>
   </si>
   <si>
-    <t xml:space="preserve">124</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1,6 %</t>
+    <t xml:space="preserve">126</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3,3 %</t>
   </si>
   <si>
     <t xml:space="preserve">- Davon 60-bis-79-Jährige</t>
@@ -150,10 +153,7 @@
     <t xml:space="preserve">101</t>
   </si>
   <si>
-    <t xml:space="preserve">97</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-4,0 %</t>
+    <t xml:space="preserve">98</t>
   </si>
   <si>
     <t xml:space="preserve">- Davon Über-80-Jährige</t>
@@ -162,10 +162,10 @@
     <t xml:space="preserve">190</t>
   </si>
   <si>
-    <t xml:space="preserve">212</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11,6 %</t>
+    <t xml:space="preserve">215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13,2 %</t>
   </si>
   <si>
     <t xml:space="preserve">Regionen mit 7-TI bei Über-60-Jährigen:</t>
@@ -177,7 +177,10 @@
     <t xml:space="preserve">366</t>
   </si>
   <si>
-    <t xml:space="preserve"> 0,0 %</t>
+    <t xml:space="preserve">367</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0,3 %</t>
   </si>
   <si>
     <t xml:space="preserve">&gt; 50</t>
@@ -186,10 +189,10 @@
     <t xml:space="preserve">339</t>
   </si>
   <si>
-    <t xml:space="preserve">335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1,2 %</t>
+    <t xml:space="preserve">338</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0,3 %</t>
   </si>
   <si>
     <t xml:space="preserve">Intensivbetten</t>
@@ -204,7 +207,7 @@
     <t xml:space="preserve">27409</t>
   </si>
   <si>
-    <t xml:space="preserve"> -1,9</t>
+    <t xml:space="preserve"> -1,9 %</t>
   </si>
   <si>
     <t xml:space="preserve">Belegung durch Patient*innen mit COVID-19</t>
@@ -218,7 +221,7 @@
 3901</t>
   </si>
   <si>
-    <t xml:space="preserve">  5,2</t>
+    <t xml:space="preserve">  5,2 %</t>
   </si>
   <si>
     <t xml:space="preserve">Freie Intensivbetten</t>
@@ -232,34 +235,40 @@
 5869</t>
   </si>
   <si>
-    <t xml:space="preserve">-11,7</t>
+    <t xml:space="preserve">-11,7 %</t>
   </si>
   <si>
     <t xml:space="preserve">Ohne Symptomatik</t>
   </si>
   <si>
-    <t xml:space="preserve">15,3 %</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NA %</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NA PP</t>
+    <t xml:space="preserve">14,9 %</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16 %</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1,1 PP</t>
   </si>
   <si>
     <t xml:space="preserve">Nicht stationär behandelt</t>
   </si>
   <si>
-    <t xml:space="preserve">94 %</t>
+    <t xml:space="preserve">93 %</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0 PP</t>
   </si>
   <si>
     <t xml:space="preserve">Intensivmedizinisch behandelt (Schätzung)</t>
   </si>
   <si>
-    <t xml:space="preserve"> %</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> PP</t>
+    <t xml:space="preserve">1,57 %</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1,54 %</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0,03 PP</t>
   </si>
   <si>
     <t xml:space="preserve">Klinik- und Praxispersonal</t>
@@ -280,6 +289,9 @@
     <t xml:space="preserve">Neu stationär behandelt</t>
   </si>
   <si>
+    <t xml:space="preserve">124</t>
+  </si>
+  <si>
     <t xml:space="preserve">58</t>
   </si>
   <si>
@@ -304,19 +316,19 @@
     <t xml:space="preserve">0 bis 4 Jahre</t>
   </si>
   <si>
-    <t xml:space="preserve">2 ( 0,1%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0%</t>
+    <t xml:space="preserve">1 ( 0,0%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 ( 0,1%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 200,0%</t>
   </si>
   <si>
     <t xml:space="preserve">5 bis 14 Jahre</t>
   </si>
   <si>
-    <t xml:space="preserve">1 ( 0,0%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-100%</t>
+    <t xml:space="preserve">-100,0%</t>
   </si>
   <si>
     <t xml:space="preserve">15 bis 34 Jahre</t>
@@ -328,49 +340,52 @@
     <t xml:space="preserve">2 ( 0,0%)</t>
   </si>
   <si>
-    <t xml:space="preserve">-33.3%</t>
+    <t xml:space="preserve"> -33,3%</t>
   </si>
   <si>
     <t xml:space="preserve">35 bis 59 Jahre</t>
   </si>
   <si>
-    <t xml:space="preserve">46 ( 0,1%)</t>
+    <t xml:space="preserve">47 ( 0,1%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   0,0%</t>
   </si>
   <si>
     <t xml:space="preserve">60 bis 79 Jahre</t>
   </si>
   <si>
-    <t xml:space="preserve">351 ( 2,3%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">333 ( 1,9%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-5.1%</t>
+    <t xml:space="preserve">356 ( 2,4%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">352 ( 2,0%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -1,1%</t>
   </si>
   <si>
     <t xml:space="preserve">80 Jahre +</t>
   </si>
   <si>
-    <t xml:space="preserve">806 (13,3%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">884 (11,9%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.7%</t>
+    <t xml:space="preserve">821 (13,5%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">899 (12,1%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   9,5%</t>
   </si>
   <si>
     <t xml:space="preserve">Gesamt</t>
   </si>
   <si>
-    <t xml:space="preserve">1209 ( 1,1%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1268 ( 1,0%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.9%</t>
+    <t xml:space="preserve">1229 ( 1,1%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1304 ( 1,0%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   6,1%</t>
   </si>
   <si>
     <t xml:space="preserve">Vorwarnzeit</t>
@@ -392,7 +407,7 @@
 Hessen, Bayern, Sachsen</t>
   </si>
   <si>
-    <t xml:space="preserve">13 Tage
+    <t xml:space="preserve">12 Tage
 Sachsen</t>
   </si>
   <si>
@@ -503,7 +518,7 @@
     <t xml:space="preserve">Belgien</t>
   </si>
   <si>
-    <t xml:space="preserve">18,4</t>
+    <t xml:space="preserve">17,6</t>
   </si>
   <si>
     <t xml:space="preserve">Spanien</t>
@@ -515,16 +530,10 @@
     <t xml:space="preserve">Tschechien</t>
   </si>
   <si>
-    <t xml:space="preserve">18,1</t>
-  </si>
-  <si>
     <t xml:space="preserve">Rumänien</t>
   </si>
   <si>
-    <t xml:space="preserve">17,6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16,0</t>
+    <t xml:space="preserve">16,3</t>
   </si>
   <si>
     <t xml:space="preserve">Deutschland</t>
@@ -533,22 +542,22 @@
     <t xml:space="preserve">Niederlande</t>
   </si>
   <si>
-    <t xml:space="preserve">12,0</t>
+    <t xml:space="preserve">11,8</t>
   </si>
   <si>
     <t xml:space="preserve">11,7</t>
   </si>
   <si>
-    <t xml:space="preserve"> 9,4</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 8,3</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 5,1</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 4,5</t>
+    <t xml:space="preserve"> 9,3</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 8,2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 5,0</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4,6</t>
   </si>
 </sst>
 </file>
@@ -878,7 +887,7 @@
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="1"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -976,7 +985,7 @@
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -1036,38 +1045,38 @@
         <v>35</v>
       </c>
       <c r="C5" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="D5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D7" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8">
@@ -1100,24 +1109,24 @@
         <v>51</v>
       </c>
       <c r="C10" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D10" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B11" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C11" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -1132,11 +1141,11 @@
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -1150,44 +1159,44 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B4" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D4" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -1202,7 +1211,7 @@
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -1220,49 +1229,49 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C3" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="D3" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B4" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C4" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="D4" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B5"/>
       <c r="C5"/>
@@ -1270,41 +1279,41 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B6" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C6" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="D6" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B7" t="s">
-        <v>39</v>
+        <v>88</v>
       </c>
       <c r="C7" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="D7" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B8" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="C8" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="D8"/>
     </row>
@@ -1320,17 +1329,17 @@
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="D1" t="s">
         <v>3</v>
@@ -1338,100 +1347,100 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="C2" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="D2" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="B3" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C3" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="D3" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B4" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="C4" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="D4" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B5" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="C5" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="D5" t="s">
-        <v>94</v>
+        <v>108</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="B6" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="C6" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="D6" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="B7" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="C7" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="D7" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="B8" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="C8" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="D8" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -1446,11 +1455,11 @@
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -1464,13 +1473,13 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="B2" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="C2" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="D2" t="n">
         <v>-4</v>
@@ -1478,27 +1487,27 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="B3" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="C3" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="D3" t="n">
-        <v>-4</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="B4" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="C4" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="D4" t="n">
         <v>-1</v>
@@ -1516,37 +1525,37 @@
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="B1" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="C1" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="D1" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="E1" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="B2" t="n">
-        <v>0.983</v>
+        <v>0.98</v>
       </c>
       <c r="C2" t="n">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D2" t="n">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E2" t="n">
         <v>23</v>
@@ -1554,33 +1563,33 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="B3" t="n">
-        <v>0.955</v>
+        <v>0.96</v>
       </c>
       <c r="C3" t="n">
         <v>137</v>
       </c>
       <c r="D3" t="n">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E3" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="B4" t="n">
-        <v>1.0042</v>
+        <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="D4" t="n">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="E4" t="n">
         <v>14</v>
@@ -1588,16 +1597,16 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="B5" t="n">
-        <v>0.9673</v>
+        <v>0.97</v>
       </c>
       <c r="C5" t="n">
         <v>212</v>
       </c>
       <c r="D5" t="n">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E5" t="n">
         <v>15</v>
@@ -1605,33 +1614,33 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="B6" t="n">
-        <v>1.0954</v>
+        <v>1.1</v>
       </c>
       <c r="C6" t="n">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="D6" t="n">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="E6" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="B7" t="n">
-        <v>0.8715</v>
+        <v>0.87</v>
       </c>
       <c r="C7" t="n">
         <v>115</v>
       </c>
       <c r="D7" t="n">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E7" t="n">
         <v>29</v>
@@ -1639,16 +1648,16 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="B8" t="n">
-        <v>0.8613</v>
+        <v>0.86</v>
       </c>
       <c r="C8" t="n">
         <v>88</v>
       </c>
       <c r="D8" t="n">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E8" t="n">
         <v>42</v>
@@ -1656,10 +1665,10 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="B9" t="n">
-        <v>0.9133</v>
+        <v>0.91</v>
       </c>
       <c r="C9" t="n">
         <v>158</v>
@@ -1673,10 +1682,10 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="B10" t="n">
-        <v>0.9598</v>
+        <v>0.96</v>
       </c>
       <c r="C10" t="n">
         <v>48</v>
@@ -1690,16 +1699,16 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="B11" t="n">
-        <v>0.9564</v>
+        <v>0.95</v>
       </c>
       <c r="C11" t="n">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D11" t="n">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E11" t="n">
         <v>34</v>
@@ -1707,16 +1716,16 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="B12" t="n">
-        <v>0.9545</v>
+        <v>0.96</v>
       </c>
       <c r="C12" t="n">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D12" t="n">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E12" t="n">
         <v>26</v>
@@ -1724,16 +1733,16 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="B13" t="n">
-        <v>0.9838</v>
+        <v>0.98</v>
       </c>
       <c r="C13" t="n">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D13" t="n">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E13" t="n">
         <v>28</v>
@@ -1741,10 +1750,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="B14" t="n">
-        <v>0.9365</v>
+        <v>0.94</v>
       </c>
       <c r="C14" t="n">
         <v>122</v>
@@ -1758,27 +1767,27 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="B15" t="n">
-        <v>1.1187</v>
+        <v>1.12</v>
       </c>
       <c r="C15" t="n">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="D15" t="n">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="E15" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="B16" t="n">
-        <v>1.1555</v>
+        <v>1.16</v>
       </c>
       <c r="C16" t="n">
         <v>104</v>
@@ -1792,16 +1801,16 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="B17" t="n">
-        <v>0.9944</v>
+        <v>0.99</v>
       </c>
       <c r="C17" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D17" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E17" t="n">
         <v>74</v>
@@ -1809,16 +1818,16 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="B18" t="n">
-        <v>1.2382</v>
+        <v>1.24</v>
       </c>
       <c r="C18" t="n">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D18" t="n">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E18" t="n">
         <v>23</v>
@@ -1836,292 +1845,292 @@
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="B1" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="C1" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="D1" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="E1" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="F1" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="G1" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="H1" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="B2" t="n">
-        <v>2270573</v>
+        <v>2275016</v>
       </c>
       <c r="C2" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="D2" t="n">
-        <v>58342</v>
+        <v>58545</v>
       </c>
       <c r="E2" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="F2" t="n">
-        <v>718</v>
+        <v>678</v>
       </c>
       <c r="G2" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="H2" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="B3" t="n">
-        <v>1628208</v>
+        <v>1648187</v>
       </c>
       <c r="C3" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="D3" t="n">
-        <v>54904</v>
+        <v>55576</v>
       </c>
       <c r="E3" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="F3" t="n">
-        <v>672</v>
+        <v>653</v>
       </c>
       <c r="G3" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="H3" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="B4" t="n">
-        <v>1621305</v>
+        <v>1633733</v>
       </c>
       <c r="C4" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="D4" t="n">
-        <v>52410</v>
+        <v>52819</v>
       </c>
       <c r="E4" t="s">
+        <v>167</v>
+      </c>
+      <c r="F4" t="n">
+        <v>569</v>
+      </c>
+      <c r="G4" t="s">
+        <v>161</v>
+      </c>
+      <c r="H4" t="s">
         <v>163</v>
-      </c>
-      <c r="F4" t="n">
-        <v>575</v>
-      </c>
-      <c r="G4" t="s">
-        <v>156</v>
-      </c>
-      <c r="H4" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="B5" t="n">
-        <v>1585178</v>
+        <v>1601554</v>
       </c>
       <c r="C5" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="D5" t="n">
-        <v>44668</v>
+        <v>45069</v>
       </c>
       <c r="E5" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="F5" t="n">
-        <v>558</v>
+        <v>540</v>
       </c>
       <c r="G5" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="H5" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="B6" t="n">
-        <v>1055691</v>
+        <v>1069912</v>
       </c>
       <c r="C6" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="D6" t="n">
-        <v>17029</v>
+        <v>17150</v>
       </c>
       <c r="E6" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="F6" t="n">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="G6" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="H6" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="B7" t="n">
-        <v>985075</v>
+        <v>990811</v>
       </c>
       <c r="C7" t="s">
-        <v>157</v>
+        <v>169</v>
       </c>
       <c r="D7" t="n">
-        <v>16547</v>
+        <v>16694</v>
       </c>
       <c r="E7" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="F7" t="n">
-        <v>368</v>
+        <v>359</v>
       </c>
       <c r="G7" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="H7" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="B8" t="n">
-        <v>576599</v>
+        <v>577345</v>
       </c>
       <c r="C8" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="D8" t="n">
-        <v>16306</v>
+        <v>16645</v>
       </c>
       <c r="E8" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="F8" t="n">
-        <v>367</v>
+        <v>355</v>
       </c>
       <c r="G8" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="H8" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
+        <v>170</v>
+      </c>
+      <c r="B9" t="n">
+        <v>531930</v>
+      </c>
+      <c r="C9" t="s">
         <v>167</v>
       </c>
-      <c r="B9" t="n">
-        <v>527336</v>
-      </c>
-      <c r="C9" t="s">
-        <v>163</v>
-      </c>
       <c r="D9" t="n">
-        <v>11193</v>
+        <v>11331</v>
       </c>
       <c r="E9" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="F9" t="n">
-        <v>363</v>
+        <v>342</v>
       </c>
       <c r="G9" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="H9" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="B10" t="n">
-        <v>519723</v>
+        <v>523298</v>
       </c>
       <c r="C10" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="D10" t="n">
-        <v>9426</v>
+        <v>9453</v>
       </c>
       <c r="E10" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="F10" t="n">
-        <v>352</v>
+        <v>324</v>
       </c>
       <c r="G10" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="H10" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="B11" t="n">
-        <v>471536</v>
+        <v>475362</v>
       </c>
       <c r="C11" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="D11" t="n">
-        <v>8138</v>
+        <v>8295</v>
       </c>
       <c r="E11" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="F11" t="n">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="G11" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="H11" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
     </row>
   </sheetData>
